--- a/TestingAndCalibrationLabs/TestingAndCalibrationLabs/MaterialDesignTest.xlsx
+++ b/TestingAndCalibrationLabs/TestingAndCalibrationLabs/MaterialDesignTest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa2e4abb4efb2a86/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56855266-E058-43A6-84C2-0E14F5A9E136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{B74D05BB-303D-4113-9B51-B86CC967A3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F552DEB-57BB-4C1A-B5D3-5CFE7BD0D089}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
   <si>
     <t>Status</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Fail</t>
   </si>
   <si>
-    <t xml:space="preserve">Content Menu bar are not proper </t>
-  </si>
-  <si>
     <t>Sushil</t>
   </si>
   <si>
@@ -69,28 +66,82 @@
     <t>Data selected randomly and when clicked on super parent it disappear</t>
   </si>
   <si>
-    <t xml:space="preserve">In medium screen Nav bar </t>
-  </si>
-  <si>
-    <t>Item get overlapped by footer</t>
-  </si>
-  <si>
-    <t>In medium screen item displayed (any one/ all/Some item)</t>
-  </si>
-  <si>
-    <t>In Mobile screen nav bar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Mobile view item </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Space beween item listed and seach bar </t>
-  </si>
-  <si>
-    <t>It should be minimised</t>
-  </si>
-  <si>
-    <t>Does not collapse Nav bar/item, it remain opened</t>
+    <t>In MS Edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Pc view Ui loads </t>
+  </si>
+  <si>
+    <t>On checking the list in drop down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On selecting the check box, data list in empty space </t>
+  </si>
+  <si>
+    <t>on click the "x" list or card get closed</t>
+  </si>
+  <si>
+    <t>NavBar</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>In Mobile view</t>
+  </si>
+  <si>
+    <t>On empty or No select the message apperes</t>
+  </si>
+  <si>
+    <t>Menu = works on click</t>
+  </si>
+  <si>
+    <t>Data list on click on box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on click of "x" card get removed </t>
+  </si>
+  <si>
+    <t>On many data load it looks fine</t>
+  </si>
+  <si>
+    <t>It got stuck with the footer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Middle Tab Vew Ui loads </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message appears on empty select click </t>
+  </si>
+  <si>
+    <t>Menu bar collapse</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>On empty click the select message appears</t>
+  </si>
+  <si>
+    <t>on multiple data select Ui look fine</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>it got stuck with the footer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On click of "x" the cards get removed </t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>footer on normal load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logo position </t>
   </si>
 </sst>
 </file>
@@ -98,9 +149,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,15 +225,57 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +285,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -207,12 +318,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -226,7 +337,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -510,13 +634,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.21875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="56.77734375" bestFit="1" customWidth="1"/>
@@ -541,14 +665,12 @@
         <v>4</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
@@ -556,13 +678,13 @@
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -572,17 +694,17 @@
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -591,13 +713,13 @@
     </row>
     <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -607,144 +729,216 @@
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
+      <c r="A13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>21</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
+      <c r="A16" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="C25" s="4"/>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C28" s="4"/>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
